--- a/target/classes/com/ae/qa/testdata/TestData_AE.xlsx
+++ b/target/classes/com/ae/qa/testdata/TestData_AE.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8DB26336-512B-421C-899E-B4C8C0E983E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{163C9B28-EC7D-4FCA-BB7D-0EF5F18BFB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="22380" windowHeight="13224" xr2:uid="{566FD26B-6A2E-4830-A35C-1F09F06724DE}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{566FD26B-6A2E-4830-A35C-1F09F06724DE}"/>
   </bookViews>
   <sheets>
     <sheet name="TenantsDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="SetSecurityQues" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
+  <oleSize ref="A1:O21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Tenant Name</t>
   </si>
@@ -48,19 +49,61 @@
   </si>
   <si>
     <t>112</t>
+  </si>
+  <si>
+    <t>Ques1</t>
+  </si>
+  <si>
+    <t>Ques2</t>
+  </si>
+  <si>
+    <t>Ques3</t>
+  </si>
+  <si>
+    <t>Ans1</t>
+  </si>
+  <si>
+    <t>Ans2</t>
+  </si>
+  <si>
+    <t>Ans3</t>
+  </si>
+  <si>
+    <t>Kunda</t>
+  </si>
+  <si>
+    <t>icecream</t>
+  </si>
+  <si>
+    <t>What is the last name of your favorite author?</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>What is your mother's maiden name?</t>
+  </si>
+  <si>
+    <t>What was your favorite food as a child?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,10 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4935BE26-10DF-4239-8004-485FAAE274DF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -456,4 +505,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F9369F-347A-478D-A866-B6E62DBF8624}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>